--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_building_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_building_update.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
